--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Icam1-Itgal.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Icam1-Itgal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.2243578862117</v>
+        <v>144.843106</v>
       </c>
       <c r="H2">
-        <v>46.2243578862117</v>
+        <v>434.529318</v>
       </c>
       <c r="I2">
-        <v>0.3825200913773227</v>
+        <v>0.6517202749316883</v>
       </c>
       <c r="J2">
-        <v>0.3825200913773227</v>
+        <v>0.6517202749316884</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.04779714419334</v>
+        <v>19.43258433333333</v>
       </c>
       <c r="N2">
-        <v>1.04779714419334</v>
+        <v>58.29775300000001</v>
       </c>
       <c r="O2">
-        <v>0.05770453436078394</v>
+        <v>0.5025299392457537</v>
       </c>
       <c r="P2">
-        <v>0.05770453436078394</v>
+        <v>0.5025299392457538</v>
       </c>
       <c r="Q2">
-        <v>48.43375018534351</v>
+        <v>2814.67587244694</v>
       </c>
       <c r="R2">
-        <v>48.43375018534351</v>
+        <v>25332.08285202246</v>
       </c>
       <c r="S2">
-        <v>0.02207314375657293</v>
+        <v>0.3275089501666472</v>
       </c>
       <c r="T2">
-        <v>0.02207314375657293</v>
+        <v>0.3275089501666473</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.2243578862117</v>
+        <v>144.843106</v>
       </c>
       <c r="H3">
-        <v>46.2243578862117</v>
+        <v>434.529318</v>
       </c>
       <c r="I3">
-        <v>0.3825200913773227</v>
+        <v>0.6517202749316883</v>
       </c>
       <c r="J3">
-        <v>0.3825200913773227</v>
+        <v>0.6517202749316884</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>17.1101718230673</v>
+        <v>0.3811586666666666</v>
       </c>
       <c r="N3">
-        <v>17.1101718230673</v>
+        <v>1.143476</v>
       </c>
       <c r="O3">
-        <v>0.9422954656392161</v>
+        <v>0.009856828012032942</v>
       </c>
       <c r="P3">
-        <v>0.9422954656392161</v>
+        <v>0.009856828012032942</v>
       </c>
       <c r="Q3">
-        <v>790.9067058440382</v>
+        <v>55.20820515881866</v>
       </c>
       <c r="R3">
-        <v>790.9067058440382</v>
+        <v>496.873846429368</v>
       </c>
       <c r="S3">
-        <v>0.3604469476207497</v>
+        <v>0.006423894661956475</v>
       </c>
       <c r="T3">
-        <v>0.3604469476207497</v>
+        <v>0.006423894661956476</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.7697434139267</v>
+        <v>144.843106</v>
       </c>
       <c r="H4">
-        <v>33.7697434139267</v>
+        <v>434.529318</v>
       </c>
       <c r="I4">
-        <v>0.2794545111536786</v>
+        <v>0.6517202749316883</v>
       </c>
       <c r="J4">
-        <v>0.2794545111536786</v>
+        <v>0.6517202749316884</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.04779714419334</v>
+        <v>18.712703</v>
       </c>
       <c r="N4">
-        <v>1.04779714419334</v>
+        <v>56.138109</v>
       </c>
       <c r="O4">
-        <v>0.05770453436078394</v>
+        <v>0.4839136854063913</v>
       </c>
       <c r="P4">
-        <v>0.05770453436078394</v>
+        <v>0.4839136854063913</v>
       </c>
       <c r="Q4">
-        <v>35.38384070925424</v>
+        <v>2710.406024175518</v>
       </c>
       <c r="R4">
-        <v>35.38384070925424</v>
+        <v>24393.65421757966</v>
       </c>
       <c r="S4">
-        <v>0.01612579244114353</v>
+        <v>0.3153763600962599</v>
       </c>
       <c r="T4">
-        <v>0.01612579244114353</v>
+        <v>0.3153763600962599</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>33.7697434139267</v>
+        <v>144.843106</v>
       </c>
       <c r="H5">
-        <v>33.7697434139267</v>
+        <v>434.529318</v>
       </c>
       <c r="I5">
-        <v>0.2794545111536786</v>
+        <v>0.6517202749316883</v>
       </c>
       <c r="J5">
-        <v>0.2794545111536786</v>
+        <v>0.6517202749316884</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>17.1101718230673</v>
+        <v>0.1430596666666667</v>
       </c>
       <c r="N5">
-        <v>17.1101718230673</v>
+        <v>0.429179</v>
       </c>
       <c r="O5">
-        <v>0.9422954656392161</v>
+        <v>0.003699547335821903</v>
       </c>
       <c r="P5">
-        <v>0.9422954656392161</v>
+        <v>0.003699547335821903</v>
       </c>
       <c r="Q5">
-        <v>577.8061122331811</v>
+        <v>20.72120646332467</v>
       </c>
       <c r="R5">
-        <v>577.8061122331811</v>
+        <v>186.490858169922</v>
       </c>
       <c r="S5">
-        <v>0.2633287187125351</v>
+        <v>0.002411070006824645</v>
       </c>
       <c r="T5">
-        <v>0.2633287187125351</v>
+        <v>0.002411070006824646</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,57 +779,57 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.9776585834394</v>
+        <v>33.793597</v>
       </c>
       <c r="H6">
-        <v>38.9776585834394</v>
+        <v>101.380791</v>
       </c>
       <c r="I6">
-        <v>0.3225515335380951</v>
+        <v>0.1520539909422453</v>
       </c>
       <c r="J6">
-        <v>0.3225515335380951</v>
+        <v>0.1520539909422453</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.04779714419334</v>
+        <v>19.43258433333333</v>
       </c>
       <c r="N6">
-        <v>1.04779714419334</v>
+        <v>58.29775300000001</v>
       </c>
       <c r="O6">
-        <v>0.05770453436078394</v>
+        <v>0.5025299392457537</v>
       </c>
       <c r="P6">
-        <v>0.05770453436078394</v>
+        <v>0.5025299392457538</v>
       </c>
       <c r="Q6">
-        <v>40.84067935107083</v>
+        <v>656.6969236291803</v>
       </c>
       <c r="R6">
-        <v>40.84067935107083</v>
+        <v>5910.272312662624</v>
       </c>
       <c r="S6">
-        <v>0.01861268605017256</v>
+        <v>0.07641168283028092</v>
       </c>
       <c r="T6">
-        <v>0.01861268605017256</v>
+        <v>0.07641168283028094</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>38.9776585834394</v>
+        <v>33.793597</v>
       </c>
       <c r="H7">
-        <v>38.9776585834394</v>
+        <v>101.380791</v>
       </c>
       <c r="I7">
-        <v>0.3225515335380951</v>
+        <v>0.1520539909422453</v>
       </c>
       <c r="J7">
-        <v>0.3225515335380951</v>
+        <v>0.1520539909422453</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>17.1101718230673</v>
+        <v>0.3811586666666666</v>
       </c>
       <c r="N7">
-        <v>17.1101718230673</v>
+        <v>1.143476</v>
       </c>
       <c r="O7">
-        <v>0.9422954656392161</v>
+        <v>0.009856828012032942</v>
       </c>
       <c r="P7">
-        <v>0.9422954656392161</v>
+        <v>0.009856828012032942</v>
       </c>
       <c r="Q7">
-        <v>666.9144356235022</v>
+        <v>12.88072237439066</v>
       </c>
       <c r="R7">
-        <v>666.9144356235022</v>
+        <v>115.926501369516</v>
       </c>
       <c r="S7">
-        <v>0.3039388474879225</v>
+        <v>0.001498770037260927</v>
       </c>
       <c r="T7">
-        <v>0.3039388474879225</v>
+        <v>0.001498770037260927</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.86988720422291</v>
+        <v>33.793597</v>
       </c>
       <c r="H8">
-        <v>1.86988720422291</v>
+        <v>101.380791</v>
       </c>
       <c r="I8">
-        <v>0.01547386393090367</v>
+        <v>0.1520539909422453</v>
       </c>
       <c r="J8">
-        <v>0.01547386393090367</v>
+        <v>0.1520539909422453</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.04779714419334</v>
+        <v>18.712703</v>
       </c>
       <c r="N8">
-        <v>1.04779714419334</v>
+        <v>56.138109</v>
       </c>
       <c r="O8">
-        <v>0.05770453436078394</v>
+        <v>0.4839136854063913</v>
       </c>
       <c r="P8">
-        <v>0.05770453436078394</v>
+        <v>0.4839136854063913</v>
       </c>
       <c r="Q8">
-        <v>1.959262472548434</v>
+        <v>632.369543962691</v>
       </c>
       <c r="R8">
-        <v>1.959262472548434</v>
+        <v>5691.325895664219</v>
       </c>
       <c r="S8">
-        <v>0.0008929121128949262</v>
+        <v>0.07358100713761197</v>
       </c>
       <c r="T8">
-        <v>0.0008929121128949262</v>
+        <v>0.07358100713761197</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,551 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>33.793597</v>
+      </c>
+      <c r="H9">
+        <v>101.380791</v>
+      </c>
+      <c r="I9">
+        <v>0.1520539909422453</v>
+      </c>
+      <c r="J9">
+        <v>0.1520539909422453</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.1430596666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.429179</v>
+      </c>
+      <c r="O9">
+        <v>0.003699547335821903</v>
+      </c>
+      <c r="P9">
+        <v>0.003699547335821903</v>
+      </c>
+      <c r="Q9">
+        <v>4.834500722287666</v>
+      </c>
+      <c r="R9">
+        <v>43.510506500589</v>
+      </c>
+      <c r="S9">
+        <v>0.0005625309370914714</v>
+      </c>
+      <c r="T9">
+        <v>0.0005625309370914714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.86988720422291</v>
-      </c>
-      <c r="H9">
-        <v>1.86988720422291</v>
-      </c>
-      <c r="I9">
-        <v>0.01547386393090367</v>
-      </c>
-      <c r="J9">
-        <v>0.01547386393090367</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>17.1101718230673</v>
-      </c>
-      <c r="N9">
-        <v>17.1101718230673</v>
-      </c>
-      <c r="O9">
-        <v>0.9422954656392161</v>
-      </c>
-      <c r="P9">
-        <v>0.9422954656392161</v>
-      </c>
-      <c r="Q9">
-        <v>31.99409135400893</v>
-      </c>
-      <c r="R9">
-        <v>31.99409135400893</v>
-      </c>
-      <c r="S9">
-        <v>0.01458095181800875</v>
-      </c>
-      <c r="T9">
-        <v>0.01458095181800875</v>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>41.33760066666667</v>
+      </c>
+      <c r="H10">
+        <v>124.012802</v>
+      </c>
+      <c r="I10">
+        <v>0.1859981687460937</v>
+      </c>
+      <c r="J10">
+        <v>0.1859981687460937</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>19.43258433333333</v>
+      </c>
+      <c r="N10">
+        <v>58.29775300000001</v>
+      </c>
+      <c r="O10">
+        <v>0.5025299392457537</v>
+      </c>
+      <c r="P10">
+        <v>0.5025299392457538</v>
+      </c>
+      <c r="Q10">
+        <v>803.2964110926563</v>
+      </c>
+      <c r="R10">
+        <v>7229.667699833906</v>
+      </c>
+      <c r="S10">
+        <v>0.09346964843979594</v>
+      </c>
+      <c r="T10">
+        <v>0.09346964843979595</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>41.33760066666667</v>
+      </c>
+      <c r="H11">
+        <v>124.012802</v>
+      </c>
+      <c r="I11">
+        <v>0.1859981687460937</v>
+      </c>
+      <c r="J11">
+        <v>0.1859981687460937</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.3811586666666666</v>
+      </c>
+      <c r="N11">
+        <v>1.143476</v>
+      </c>
+      <c r="O11">
+        <v>0.009856828012032942</v>
+      </c>
+      <c r="P11">
+        <v>0.009856828012032942</v>
+      </c>
+      <c r="Q11">
+        <v>15.75618475330578</v>
+      </c>
+      <c r="R11">
+        <v>141.805662779752</v>
+      </c>
+      <c r="S11">
+        <v>0.001833351959883327</v>
+      </c>
+      <c r="T11">
+        <v>0.001833351959883327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>41.33760066666667</v>
+      </c>
+      <c r="H12">
+        <v>124.012802</v>
+      </c>
+      <c r="I12">
+        <v>0.1859981687460937</v>
+      </c>
+      <c r="J12">
+        <v>0.1859981687460937</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>18.712703</v>
+      </c>
+      <c r="N12">
+        <v>56.138109</v>
+      </c>
+      <c r="O12">
+        <v>0.4839136854063913</v>
+      </c>
+      <c r="P12">
+        <v>0.4839136854063913</v>
+      </c>
+      <c r="Q12">
+        <v>773.5382440079354</v>
+      </c>
+      <c r="R12">
+        <v>6961.844196071418</v>
+      </c>
+      <c r="S12">
+        <v>0.09000705931676209</v>
+      </c>
+      <c r="T12">
+        <v>0.09000705931676209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>41.33760066666667</v>
+      </c>
+      <c r="H13">
+        <v>124.012802</v>
+      </c>
+      <c r="I13">
+        <v>0.1859981687460937</v>
+      </c>
+      <c r="J13">
+        <v>0.1859981687460937</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.1430596666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.429179</v>
+      </c>
+      <c r="O13">
+        <v>0.003699547335821903</v>
+      </c>
+      <c r="P13">
+        <v>0.003699547335821903</v>
+      </c>
+      <c r="Q13">
+        <v>5.913743372173111</v>
+      </c>
+      <c r="R13">
+        <v>53.22369034955799</v>
+      </c>
+      <c r="S13">
+        <v>0.0006881090296523638</v>
+      </c>
+      <c r="T13">
+        <v>0.0006881090296523638</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.273049333333333</v>
+      </c>
+      <c r="H14">
+        <v>6.819148</v>
+      </c>
+      <c r="I14">
+        <v>0.01022756537997252</v>
+      </c>
+      <c r="J14">
+        <v>0.01022756537997253</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>19.43258433333333</v>
+      </c>
+      <c r="N14">
+        <v>58.29775300000001</v>
+      </c>
+      <c r="O14">
+        <v>0.5025299392457537</v>
+      </c>
+      <c r="P14">
+        <v>0.5025299392457538</v>
+      </c>
+      <c r="Q14">
+        <v>44.17122286382711</v>
+      </c>
+      <c r="R14">
+        <v>397.541005774444</v>
+      </c>
+      <c r="S14">
+        <v>0.005139657809029567</v>
+      </c>
+      <c r="T14">
+        <v>0.005139657809029569</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.273049333333333</v>
+      </c>
+      <c r="H15">
+        <v>6.819148</v>
+      </c>
+      <c r="I15">
+        <v>0.01022756537997252</v>
+      </c>
+      <c r="J15">
+        <v>0.01022756537997253</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.3811586666666666</v>
+      </c>
+      <c r="N15">
+        <v>1.143476</v>
+      </c>
+      <c r="O15">
+        <v>0.009856828012032942</v>
+      </c>
+      <c r="P15">
+        <v>0.009856828012032942</v>
+      </c>
+      <c r="Q15">
+        <v>0.8663924531608889</v>
+      </c>
+      <c r="R15">
+        <v>7.797532078448</v>
+      </c>
+      <c r="S15">
+        <v>0.0001008113529322115</v>
+      </c>
+      <c r="T15">
+        <v>0.0001008113529322115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.273049333333333</v>
+      </c>
+      <c r="H16">
+        <v>6.819148</v>
+      </c>
+      <c r="I16">
+        <v>0.01022756537997252</v>
+      </c>
+      <c r="J16">
+        <v>0.01022756537997253</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>18.712703</v>
+      </c>
+      <c r="N16">
+        <v>56.138109</v>
+      </c>
+      <c r="O16">
+        <v>0.4839136854063913</v>
+      </c>
+      <c r="P16">
+        <v>0.4839136854063913</v>
+      </c>
+      <c r="Q16">
+        <v>42.53489707901467</v>
+      </c>
+      <c r="R16">
+        <v>382.814073711132</v>
+      </c>
+      <c r="S16">
+        <v>0.004949258855757323</v>
+      </c>
+      <c r="T16">
+        <v>0.004949258855757324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.273049333333333</v>
+      </c>
+      <c r="H17">
+        <v>6.819148</v>
+      </c>
+      <c r="I17">
+        <v>0.01022756537997252</v>
+      </c>
+      <c r="J17">
+        <v>0.01022756537997253</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1430596666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.429179</v>
+      </c>
+      <c r="O17">
+        <v>0.003699547335821903</v>
+      </c>
+      <c r="P17">
+        <v>0.003699547335821903</v>
+      </c>
+      <c r="Q17">
+        <v>0.3251816799435556</v>
+      </c>
+      <c r="R17">
+        <v>2.926635119492</v>
+      </c>
+      <c r="S17">
+        <v>3.783736225342168E-05</v>
+      </c>
+      <c r="T17">
+        <v>3.783736225342169E-05</v>
       </c>
     </row>
   </sheetData>
